--- a/IntegratedSystem/Experiment Documentation/Productivity Experiment Result.xlsx
+++ b/IntegratedSystem/Experiment Documentation/Productivity Experiment Result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Previous</t>
   </si>
   <si>
-    <t xml:space="preserve">Proposed 400</t>
+    <t xml:space="preserve">Proposed</t>
   </si>
 </sst>
 </file>
@@ -62,11 +62,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -82,6 +83,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,11 +147,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -152,7 +168,550 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Comparison Performance Safety Framework HRC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Previous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>137.712</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137.523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138.431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>138.262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138.574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136.889</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138.061</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136.356</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>138.213</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131.427</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>137.093</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>135.566</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132.808</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>137.441</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>134.77</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>136.266</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>136.896</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>136.948</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>138.123</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>136.326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proposed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$13:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>138.301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136.657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134.289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136.266</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>133.348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>137.085</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135.206</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135.657</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>136.022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>136.232</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>134.17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>136.313</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133.056</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>135.515</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>137.107</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>135.635</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135.174</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>137.953</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>137.064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="70268004"/>
+        <c:axId val="50793100"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="70268004"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Experiments</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50793100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50793100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Accomplishment Times (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70268004"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>498600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>93600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>90360</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>82080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3261960" y="1719000"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -160,14 +719,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AB5"/>
+  <dimension ref="A2:AB32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA5" activeCellId="0" sqref="AA5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="18" style="0" width="7.95"/>
@@ -475,6 +1035,237 @@
         <v>138.301</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>137.712</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>138.301</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>137.523</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>135.114</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>138.431</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>136.657</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>138.262</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>134.289</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>138.574</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>136.266</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>136.889</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>133.348</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>138.061</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>137.085</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>136.356</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>135.206</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>138.213</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>135.657</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>131.427</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>136.022</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>137.093</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>136.232</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>135.566</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>134.17</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>132.808</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>136.313</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>137.441</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>133.056</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>134.77</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>135.515</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>136.266</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>137.107</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>136.896</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>135.635</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>136.948</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>135.174</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>138.123</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>137.953</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>136.326</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>137.064</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A2:A3"/>
@@ -494,5 +1285,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>